--- a/df_log_20250203.xlsx
+++ b/df_log_20250203.xlsx
@@ -8872,7 +8872,7 @@
         <v>679</v>
       </c>
       <c r="K171" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L171" s="4">
         <v>45691.0</v>
